--- a/sources/Udihe_data.xlsx
+++ b/sources/Udihe_data.xlsx
@@ -2284,7 +2284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2308,7 +2308,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2591,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2714,15 +2713,15 @@
       <c r="L2" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2894,15 +2893,15 @@
       <c r="L6" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>549</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2941,15 +2940,15 @@
       <c r="L7" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -2986,15 +2985,15 @@
       <c r="L8" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -3031,15 +3030,15 @@
       <c r="L9" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>557</v>
-      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -3117,15 +3116,15 @@
         <v>559</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3164,15 +3163,15 @@
       <c r="L12" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>562</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3254,15 +3253,15 @@
       <c r="L14" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>565</v>
-      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3307,7 +3306,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3344,15 +3343,15 @@
       <c r="L16" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>570</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3389,15 +3388,15 @@
       <c r="L17" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>572</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -3436,15 +3435,15 @@
       <c r="L18" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>574</v>
-      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -3481,15 +3480,15 @@
       <c r="L19" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>576</v>
-      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -3532,7 +3531,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3569,15 +3568,15 @@
       <c r="L21" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>579</v>
-      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
+      <c r="S21" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -3622,7 +3621,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3661,15 +3660,15 @@
       <c r="L23" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>584</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3714,7 +3713,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3796,15 +3795,15 @@
       <c r="L26" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>588</v>
-      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -3970,15 +3969,15 @@
       <c r="L30" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>593</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4013,15 +4012,15 @@
         <v>559</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4058,15 +4057,15 @@
       <c r="L32" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>596</v>
-      </c>
+      <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
+      <c r="S32" s="5" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
@@ -4101,15 +4100,15 @@
         <v>559</v>
       </c>
       <c r="L33" s="5"/>
-      <c r="M33" s="5" t="s">
-        <v>597</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4146,15 +4145,15 @@
       <c r="L34" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>599</v>
-      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="5" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -4238,15 +4237,15 @@
       <c r="L36" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4326,15 +4325,15 @@
       <c r="L38" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4373,15 +4372,15 @@
       <c r="L39" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>609</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4504,15 +4503,15 @@
       <c r="L42" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -4547,15 +4546,15 @@
         <v>559</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
-        <v>614</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4592,15 +4591,15 @@
       <c r="L44" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4678,15 +4677,15 @@
         <v>559</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="5" t="s">
-        <v>618</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4723,15 +4722,15 @@
       <c r="L47" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>620</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4811,15 +4810,15 @@
         <v>559</v>
       </c>
       <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>622</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4899,15 +4898,15 @@
       <c r="L51" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -4942,15 +4941,15 @@
         <v>559</v>
       </c>
       <c r="L52" s="5"/>
-      <c r="M52" s="5" t="s">
-        <v>626</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -4985,15 +4984,15 @@
         <v>559</v>
       </c>
       <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
-        <v>627</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -5077,15 +5076,15 @@
       <c r="L55" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>632</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5122,15 +5121,15 @@
       <c r="L56" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="5" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -5169,15 +5168,15 @@
       <c r="L57" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>637</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5257,15 +5256,15 @@
       <c r="L59" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>640</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5304,15 +5303,15 @@
       <c r="L60" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>642</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5347,15 +5346,15 @@
         <v>559</v>
       </c>
       <c r="L61" s="5"/>
-      <c r="M61" s="5" t="s">
-        <v>644</v>
-      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -5394,15 +5393,15 @@
       <c r="L62" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5441,15 +5440,15 @@
       <c r="L63" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>647</v>
-      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -5486,15 +5485,15 @@
       <c r="L64" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>649</v>
-      </c>
+      <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
+      <c r="S64" s="5" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
@@ -5533,15 +5532,15 @@
       <c r="L65" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>651</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5580,15 +5579,15 @@
       <c r="L66" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5625,15 +5624,15 @@
       <c r="L67" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>655</v>
-      </c>
+      <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -5668,15 +5667,15 @@
         <v>559</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
-        <v>656</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5799,15 +5798,15 @@
       <c r="L71" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>660</v>
-      </c>
+      <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
@@ -5887,15 +5886,15 @@
       <c r="L73" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>572</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="5" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -5977,15 +5976,15 @@
       <c r="L75" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M75" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -6022,15 +6021,15 @@
       <c r="L76" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -6067,15 +6066,15 @@
       <c r="L77" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>669</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -6155,15 +6154,15 @@
       <c r="L79" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="5" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -6292,15 +6291,15 @@
       <c r="L82" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>676</v>
-      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -6335,15 +6334,15 @@
         <v>559</v>
       </c>
       <c r="L83" s="5"/>
-      <c r="M83" s="5" t="s">
-        <v>627</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6378,15 +6377,15 @@
         <v>559</v>
       </c>
       <c r="L84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6425,15 +6424,15 @@
       <c r="L85" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>680</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6470,15 +6469,15 @@
       <c r="L86" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -6515,15 +6514,15 @@
       <c r="L87" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6558,15 +6557,15 @@
         <v>559</v>
       </c>
       <c r="L88" s="5"/>
-      <c r="M88" s="5" t="s">
-        <v>683</v>
-      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -6601,15 +6600,15 @@
         <v>559</v>
       </c>
       <c r="L89" s="5"/>
-      <c r="M89" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6644,15 +6643,15 @@
         <v>559</v>
       </c>
       <c r="L90" s="5"/>
-      <c r="M90" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6734,15 +6733,15 @@
       <c r="L92" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -6777,15 +6776,15 @@
         <v>559</v>
       </c>
       <c r="L93" s="5"/>
-      <c r="M93" s="5" t="s">
-        <v>689</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -6822,15 +6821,15 @@
       <c r="L94" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>690</v>
-      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
+      <c r="S94" s="5" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -6914,15 +6913,15 @@
       <c r="L96" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>693</v>
-      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -7043,15 +7042,15 @@
         <v>559</v>
       </c>
       <c r="L99" s="5"/>
-      <c r="M99" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -7086,15 +7085,15 @@
         <v>559</v>
       </c>
       <c r="L100" s="5"/>
-      <c r="M100" s="5" t="s">
-        <v>627</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7133,15 +7132,15 @@
       <c r="L101" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7264,15 +7263,15 @@
       <c r="L104" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7526,15 +7525,15 @@
       <c r="L110" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>572</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7571,15 +7570,15 @@
       <c r="L111" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M111" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7614,15 +7613,15 @@
         <v>559</v>
       </c>
       <c r="L112" s="5"/>
-      <c r="M112" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7661,15 +7660,15 @@
       <c r="L113" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7706,15 +7705,15 @@
       <c r="L114" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>713</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7749,15 +7748,15 @@
         <v>559</v>
       </c>
       <c r="L115" s="5"/>
-      <c r="M115" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7800,7 +7799,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7835,15 +7834,15 @@
         <v>559</v>
       </c>
       <c r="L117" s="5"/>
-      <c r="M117" s="5" t="s">
-        <v>716</v>
-      </c>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7882,15 +7881,15 @@
       <c r="L118" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -7927,15 +7926,15 @@
       <c r="L119" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>720</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -7972,15 +7971,15 @@
       <c r="L120" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8015,15 +8014,15 @@
         <v>559</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>716</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8105,15 +8104,15 @@
       <c r="L123" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>723</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8152,15 +8151,15 @@
       <c r="L124" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>724</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8197,15 +8196,15 @@
       <c r="L125" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>572</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8240,15 +8239,15 @@
         <v>559</v>
       </c>
       <c r="L126" s="5"/>
-      <c r="M126" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8283,15 +8282,15 @@
         <v>559</v>
       </c>
       <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>627</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -8326,15 +8325,15 @@
         <v>559</v>
       </c>
       <c r="L128" s="5"/>
-      <c r="M128" s="5" t="s">
-        <v>627</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8369,15 +8368,15 @@
         <v>559</v>
       </c>
       <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8412,15 +8411,15 @@
         <v>559</v>
       </c>
       <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -8455,15 +8454,15 @@
         <v>559</v>
       </c>
       <c r="L131" s="5"/>
-      <c r="M131" s="5" t="s">
-        <v>730</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>730</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Udihe_data.xlsx
+++ b/sources/Udihe_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="731">
   <si>
     <t>language_no</t>
   </si>
@@ -1644,21 +1644,12 @@
     <t>Х</t>
   </si>
   <si>
-    <t>POSSNOM</t>
-  </si>
-  <si>
     <t>Обычная посессивная конструкция с обычными проблемами структуры составляющих</t>
   </si>
   <si>
     <t>sulə-</t>
   </si>
   <si>
-    <t>INSTR</t>
-  </si>
-  <si>
-    <t>NOMINSTR</t>
-  </si>
-  <si>
     <t>ŋələ-</t>
   </si>
   <si>
@@ -1680,9 +1671,6 @@
     <t>DIR</t>
   </si>
   <si>
-    <t>NOMDIR</t>
-  </si>
-  <si>
     <t>NV. 'быть похож'; конкурирует с симметричной конструкцией</t>
   </si>
   <si>
@@ -1728,9 +1716,6 @@
     <t>ABL</t>
   </si>
   <si>
-    <t>NOMABL</t>
-  </si>
-  <si>
     <t>igbə-</t>
   </si>
   <si>
@@ -1770,9 +1755,6 @@
     <t>LOC</t>
   </si>
   <si>
-    <t>NOMLOC</t>
-  </si>
-  <si>
     <t>tuŋga-la-</t>
   </si>
   <si>
@@ -1848,9 +1830,6 @@
     <t>ORN</t>
   </si>
   <si>
-    <t>NOMORN</t>
-  </si>
-  <si>
     <t>Вообще-то деривационный аффикс -- Ornative (с машиной). У Булатовой и Гренобль описывается как POSS.</t>
   </si>
   <si>
@@ -1917,9 +1896,6 @@
     <t>ACC</t>
   </si>
   <si>
-    <t>ACCNOM</t>
-  </si>
-  <si>
     <t>Там буквально пример такой: ведро(ACC) полный вода(NOM) накапала</t>
   </si>
   <si>
@@ -1932,9 +1908,6 @@
     <t>DAT</t>
   </si>
   <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
     <t>NEG + 'come'</t>
   </si>
   <si>
@@ -2043,9 +2016,6 @@
     <t>agdinda-</t>
   </si>
   <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
     <t>əndə-</t>
   </si>
   <si>
@@ -2115,9 +2085,6 @@
     <t>bi-</t>
   </si>
   <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
     <t>Букв. "быть"</t>
   </si>
   <si>
@@ -2215,6 +2182,39 @@
   </si>
   <si>
     <t>К сожалению, получен только перевод с СА ("стесняется того, что вырос маленьким")</t>
+  </si>
+  <si>
+    <t>ACC_NOM</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>POSS_NOM</t>
+  </si>
+  <si>
+    <t>NOM_DIR</t>
+  </si>
+  <si>
+    <t>NOM_ABL</t>
+  </si>
+  <si>
+    <t>NOM_LOC</t>
+  </si>
+  <si>
+    <t>NOM_ORN</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>NOM_INS</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
   </si>
 </sst>
 </file>
@@ -2590,9 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2711,7 +2709,7 @@
         <v>539</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2720,7 +2718,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2746,19 +2744,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2791,19 +2789,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2836,17 +2834,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2879,19 +2879,19 @@
         <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2900,7 +2900,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2926,19 +2926,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2947,7 +2947,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2973,17 +2973,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J8" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K8" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2992,7 +2994,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3018,17 +3020,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3037,7 +3041,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3063,17 +3067,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3106,14 +3112,16 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K11" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -3123,7 +3131,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3149,19 +3157,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3170,7 +3178,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3196,19 +3204,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3241,17 +3249,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3260,7 +3270,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3286,19 +3296,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>568</v>
+        <v>724</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3331,17 +3341,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3350,7 +3362,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3376,17 +3388,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3395,7 +3409,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3421,19 +3435,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3442,7 +3456,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3468,17 +3482,19 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3487,7 +3503,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3513,17 +3529,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K20" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3556,17 +3574,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K21" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3575,7 +3595,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3601,19 +3621,19 @@
         <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3646,19 +3666,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3667,7 +3687,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3693,19 +3713,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3738,19 +3758,19 @@
         <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3783,17 +3803,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K26" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3802,7 +3824,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="5" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3828,17 +3850,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3871,17 +3895,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3914,17 +3940,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K29" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3957,17 +3985,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K30" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3976,7 +4006,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="5" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4002,14 +4032,16 @@
         <v>138</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J31" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K31" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -4019,7 +4051,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4045,17 +4077,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K32" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4064,7 +4098,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="5" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4090,14 +4124,16 @@
         <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K33" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -4107,7 +4143,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="5" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4133,17 +4169,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K34" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4152,7 +4190,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4178,19 +4216,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4223,19 +4261,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>568</v>
+        <v>724</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4244,7 +4282,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="5" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4270,17 +4308,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -4313,17 +4353,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K38" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4332,7 +4374,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="5" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4358,19 +4400,19 @@
         <v>169</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>608</v>
+        <v>726</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4379,7 +4421,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="5" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4405,17 +4447,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K40" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4448,17 +4492,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4491,17 +4537,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4510,7 +4558,7 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4536,14 +4584,16 @@
         <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K43" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4553,7 +4603,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4579,17 +4629,19 @@
         <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K44" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4598,7 +4650,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4624,17 +4676,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4667,14 +4721,16 @@
         <v>197</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K46" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4684,7 +4740,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4710,17 +4766,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K47" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4729,7 +4787,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="5" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4755,19 +4813,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4800,14 +4858,16 @@
         <v>209</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J49" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K49" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4817,7 +4877,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4843,17 +4903,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4886,17 +4948,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K51" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4905,7 +4969,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="5" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4931,14 +4995,16 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J52" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K52" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -4948,7 +5014,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4974,14 +5040,16 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -4991,7 +5059,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5017,19 +5085,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5062,10 +5130,10 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>538</v>
@@ -5074,7 +5142,7 @@
         <v>539</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>631</v>
+        <v>720</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5083,7 +5151,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5109,17 +5177,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5128,7 +5198,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5154,10 +5224,10 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>538</v>
@@ -5166,7 +5236,7 @@
         <v>539</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5175,7 +5245,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5201,17 +5271,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K58" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5244,17 +5316,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J59" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K59" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5263,7 +5337,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="5" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5289,19 +5363,19 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5310,7 +5384,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5336,14 +5410,16 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K61" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -5353,7 +5429,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5379,10 +5455,10 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>538</v>
@@ -5391,7 +5467,7 @@
         <v>539</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5400,7 +5476,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="5" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5426,19 +5502,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5447,7 +5523,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5473,17 +5549,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5492,7 +5570,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="5" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5518,19 +5596,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>568</v>
+        <v>724</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5539,7 +5617,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="5" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5565,19 +5643,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>568</v>
+        <v>724</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -5586,7 +5664,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="5" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5612,17 +5690,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K67" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5631,7 +5711,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="5" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5657,14 +5737,16 @@
         <v>285</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J68" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K68" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -5674,7 +5756,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="5" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5700,17 +5782,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K69" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5743,17 +5827,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K70" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5786,17 +5872,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K71" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5805,7 +5893,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="5" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5831,17 +5919,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K72" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5874,17 +5964,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K73" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5893,7 +5985,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5919,19 +6011,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5964,17 +6056,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K75" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -5983,7 +6077,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6009,17 +6103,19 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K76" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -6028,7 +6124,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="5" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6054,17 +6150,19 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K77" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -6073,7 +6171,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="5" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6099,17 +6197,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J78" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K78" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6142,17 +6242,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K79" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6161,7 +6263,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="5" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6187,19 +6289,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>673</v>
+        <v>727</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6232,19 +6334,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -6277,19 +6379,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6298,7 +6400,7 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="5" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6324,14 +6426,16 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J83" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K83" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -6341,7 +6445,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6367,14 +6471,16 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J84" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K84" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -6384,7 +6490,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6410,19 +6516,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6431,7 +6537,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6457,17 +6563,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K86" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6476,7 +6584,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="5" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6502,17 +6610,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K87" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6521,7 +6631,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="5" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6547,14 +6657,16 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K88" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -6564,7 +6676,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6590,14 +6702,16 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K89" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -6607,7 +6721,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6633,14 +6747,16 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J90" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K90" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -6650,7 +6766,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="5" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6676,19 +6792,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>568</v>
+        <v>724</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -6721,17 +6837,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K92" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -6740,7 +6858,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="5" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6766,14 +6884,16 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K93" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -6783,7 +6903,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="5" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6809,17 +6929,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K94" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6828,7 +6950,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="5" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6854,19 +6976,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6899,19 +7021,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6920,7 +7042,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="5" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6946,17 +7068,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K97" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6989,17 +7113,19 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K98" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7032,14 +7158,16 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J99" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K99" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -7049,7 +7177,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="5" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7075,14 +7203,16 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J100" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K100" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -7092,7 +7222,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7118,7 +7248,7 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>538</v>
@@ -7130,7 +7260,7 @@
         <v>9</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7139,7 +7269,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7165,17 +7295,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J102" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K102" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7208,17 +7340,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7251,17 +7385,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7270,7 +7406,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7296,19 +7432,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7341,17 +7477,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7384,17 +7522,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K107" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7427,17 +7567,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K108" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7470,17 +7612,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K109" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7513,17 +7657,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K110" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7532,7 +7678,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7558,17 +7704,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K111" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7577,7 +7725,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="5" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7603,14 +7751,16 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J112" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K112" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -7620,7 +7770,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="5" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7646,19 +7796,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7667,7 +7817,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="5" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7693,17 +7843,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J114" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K114" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7712,7 +7864,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="5" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7738,14 +7890,16 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J115" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K115" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
@@ -7755,7 +7909,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="5" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7781,17 +7935,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K116" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -7824,14 +7980,16 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J117" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K117" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -7841,7 +7999,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="5" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7867,19 +8025,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7888,7 +8046,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7914,17 +8072,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J119" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K119" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -7933,7 +8093,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="5" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7959,17 +8119,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K120" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -7978,7 +8140,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="5" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8004,14 +8166,16 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J121" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K121" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -8021,7 +8185,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="5" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8047,17 +8211,19 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K122" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8090,19 +8256,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8111,7 +8277,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8137,19 +8303,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8158,7 +8324,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="5" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8184,17 +8350,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="K125" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8203,7 +8371,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8229,14 +8397,16 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K126" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -8246,7 +8416,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8272,14 +8442,16 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K127" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -8289,7 +8461,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8315,14 +8487,16 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J128" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K128" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -8332,7 +8506,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8358,14 +8532,16 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J129" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K129" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -8375,7 +8551,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="5" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8401,14 +8577,16 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J130" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K130" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -8418,7 +8596,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8444,14 +8622,16 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J131" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K131" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -8461,7 +8641,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="5" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Udihe_data.xlsx
+++ b/sources/Udihe_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="730">
   <si>
     <t>language_no</t>
   </si>
@@ -1639,9 +1639,6 @@
   </si>
   <si>
     <t>NOM</t>
-  </si>
-  <si>
-    <t>Х</t>
   </si>
   <si>
     <t>Обычная посессивная конструкция с обычными проблемами структуры составляющих</t>
@@ -2590,7 +2587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2706,10 +2705,10 @@
         <v>538</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2718,7 +2717,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2744,19 +2743,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2789,19 +2788,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2834,19 +2833,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2879,19 +2878,19 @@
         <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2900,7 +2899,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2926,19 +2925,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2947,7 +2946,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2973,19 +2972,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2994,7 +2993,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3020,19 +3019,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3041,7 +3040,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3067,19 +3066,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3112,16 +3111,16 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -3131,7 +3130,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3157,19 +3156,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3178,7 +3177,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3204,19 +3203,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3249,19 +3248,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3270,7 +3269,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3296,19 +3295,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3341,19 +3340,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3362,7 +3361,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3388,19 +3387,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3409,7 +3408,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3435,19 +3434,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3456,7 +3455,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3482,19 +3481,19 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3503,7 +3502,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3529,19 +3528,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3574,19 +3573,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3595,7 +3594,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3621,19 +3620,19 @@
         <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3666,19 +3665,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3687,7 +3686,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3713,19 +3712,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3758,19 +3757,19 @@
         <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3803,19 +3802,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3824,7 +3823,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3850,19 +3849,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3895,19 +3894,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3940,19 +3939,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3985,19 +3984,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4006,7 +4005,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4032,16 +4031,16 @@
         <v>138</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -4051,7 +4050,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4077,19 +4076,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4098,7 +4097,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4124,16 +4123,16 @@
         <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -4143,7 +4142,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4169,19 +4168,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4190,7 +4189,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4216,19 +4215,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4261,19 +4260,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4282,7 +4281,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4308,19 +4307,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -4353,19 +4352,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4374,7 +4373,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4400,19 +4399,19 @@
         <v>169</v>
       </c>
       <c r="H39" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4421,7 +4420,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4447,19 +4446,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4492,19 +4491,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4537,19 +4536,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4558,7 +4557,7 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4584,16 +4583,16 @@
         <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4603,7 +4602,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4629,19 +4628,19 @@
         <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4650,7 +4649,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4676,19 +4675,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4721,16 +4720,16 @@
         <v>197</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4740,7 +4739,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4766,19 +4765,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4787,7 +4786,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4813,19 +4812,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4858,16 +4857,16 @@
         <v>209</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4877,7 +4876,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4903,19 +4902,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4948,19 +4947,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4969,7 +4968,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4995,16 +4994,16 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -5014,7 +5013,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5040,16 +5039,16 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -5059,7 +5058,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5085,19 +5084,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5130,19 +5129,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>623</v>
-      </c>
       <c r="J55" s="5" t="s">
         <v>538</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5151,7 +5150,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5177,19 +5176,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5198,7 +5197,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5224,19 +5223,19 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>627</v>
-      </c>
       <c r="J57" s="5" t="s">
         <v>538</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5245,7 +5244,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5271,19 +5270,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5316,19 +5315,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5337,7 +5336,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5363,19 +5362,19 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5384,7 +5383,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5410,16 +5409,16 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -5429,7 +5428,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5455,19 +5454,19 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>538</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5476,7 +5475,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5502,19 +5501,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5523,7 +5522,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5549,19 +5548,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5570,7 +5569,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5596,19 +5595,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5617,7 +5616,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5643,19 +5642,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -5664,7 +5663,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5690,19 +5689,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5711,7 +5710,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5737,16 +5736,16 @@
         <v>285</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -5756,7 +5755,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5782,19 +5781,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5827,19 +5826,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5872,19 +5871,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5893,7 +5892,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5919,19 +5918,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5964,19 +5963,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5985,7 +5984,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6011,19 +6010,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -6056,19 +6055,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -6077,7 +6076,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6103,19 +6102,19 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -6124,7 +6123,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6150,19 +6149,19 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -6171,7 +6170,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6197,19 +6196,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6242,19 +6241,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6263,7 +6262,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6289,19 +6288,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6334,19 +6333,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -6379,19 +6378,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6400,7 +6399,7 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6426,16 +6425,16 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -6445,7 +6444,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6471,16 +6470,16 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -6490,7 +6489,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6516,19 +6515,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6537,7 +6536,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6563,19 +6562,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6584,7 +6583,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6610,19 +6609,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6631,7 +6630,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6657,16 +6656,16 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -6676,7 +6675,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6702,16 +6701,16 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -6721,7 +6720,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6747,16 +6746,16 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -6766,7 +6765,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6792,19 +6791,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -6837,19 +6836,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -6858,7 +6857,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6884,16 +6883,16 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -6903,7 +6902,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6929,19 +6928,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6950,7 +6949,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6976,19 +6975,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7021,19 +7020,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7042,7 +7041,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7068,19 +7067,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -7113,19 +7112,19 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7158,16 +7157,16 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -7177,7 +7176,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7203,16 +7202,16 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -7222,7 +7221,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7248,7 +7247,7 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>538</v>
@@ -7260,7 +7259,7 @@
         <v>9</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7269,7 +7268,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7295,19 +7294,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7340,19 +7339,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7385,19 +7384,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7406,7 +7405,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7432,19 +7431,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7477,19 +7476,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7522,19 +7521,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7567,19 +7566,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7612,19 +7611,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7657,19 +7656,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7678,7 +7677,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7704,19 +7703,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7725,7 +7724,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7751,16 +7750,16 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -7770,7 +7769,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7796,19 +7795,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7817,7 +7816,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7843,19 +7842,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7864,7 +7863,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7890,16 +7889,16 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
@@ -7909,7 +7908,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7935,19 +7934,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -7980,16 +7979,16 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -7999,7 +7998,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8025,19 +8024,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -8046,7 +8045,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8072,19 +8071,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -8093,7 +8092,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8119,19 +8118,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -8140,7 +8139,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8166,16 +8165,16 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -8185,7 +8184,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8211,19 +8210,19 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8256,19 +8255,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8277,7 +8276,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8303,19 +8302,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8324,7 +8323,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8350,19 +8349,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8371,7 +8370,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8397,16 +8396,16 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -8416,7 +8415,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8442,16 +8441,16 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -8461,7 +8460,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8487,16 +8486,16 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -8506,7 +8505,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8532,16 +8531,16 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -8551,7 +8550,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8577,16 +8576,16 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -8596,7 +8595,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8622,16 +8621,16 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -8641,7 +8640,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
